--- a/biology/Zoologie/Course_de_lévriers/Course_de_lévriers.xlsx
+++ b/biology/Zoologie/Course_de_lévriers/Course_de_lévriers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Course_de_l%C3%A9vriers</t>
+          <t>Course_de_lévriers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une course de lévriers a pour objectif de faire courir des chiens du 10e groupe canin appelés lévriers. Ces chiens poursuivent un lièvre ou un lapin artificiel sur un circuit.
 Il existe deux types de courses de lévriers :
 la première, appelée course sur cynodrome ou racing, est une course de vitesse où le premier lévrier franchissant la ligne d'arrivée est déclaré gagnant ;
 la deuxième, appelée poursuite à vue sur leurre (PVL) ou coursing, est une simulation de chasse au lièvre.
 Dans beaucoup de pays, la course de lévriers est amateure et est faite pour la distraction du public. Dans d’autres pays (en particulier aux États-Unis, en Irlande et en Australie), elle est une forme de pari mutuel, similaire aux paris de course de chevaux.
-Il existe aussi un championnat du monde de course de lévriers[1].
+Il existe aussi un championnat du monde de course de lévriers.
 En France la première course est organisée par Eugène Chapus à Bagatelle le 28 novembre 1879. Le premier coursing club fut fondé en 1890 à Boulogne-Billancourt. En 1933 un décret autorisa le fonctionnement du pari mutuel sur les courses de lévriers. Le cynodrome de Courbevoie fonctionnera de 1936 à 1951, date de sa fermeture.
 Rapidement des propriétaires, avec leurs lévriers qui avaient couru à Courbevoie, ont recréé et organisé des courses sur des terrains occasionnels (type stade de football). Pendant 10 années le pari mutuel restait interdit et en 1961, à l'initiative de Jacques Verchere, il fut à nouveau autorisé. Ce n'est qu'au milieu des années 1970 que de nouveaux cynodrome se rouvrent : Mont de Marsan, Carnoux-en-Provence, etc.
 Les sociétés de courses de lévriers sont gérées par une Fédération Française des Sociétés de Courses de Lévriers (FFSCL). Cette Fédération regroupe aujourd'hui 11 sociétés. En 1985, période récente la plus faste, la FFSCL avait 22 sociétés affiliées.
-Selon un article du Parisien, un décret devrait interdire la pratique en France courant 2020. Les courses amicales resteraient autorisées, mais pas le pari d'argent[2]. Un arrêté relatif à la course de lévriers est effectivement publié au journal officiel le 15 Septembre 2020[3].
+Selon un article du Parisien, un décret devrait interdire la pratique en France courant 2020. Les courses amicales resteraient autorisées, mais pas le pari d'argent. Un arrêté relatif à la course de lévriers est effectivement publié au journal officiel le 15 Septembre 2020.
 </t>
         </is>
       </c>
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Course_de_l%C3%A9vriers</t>
+          <t>Course_de_lévriers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,13 +532,15 @@
           <t>Les courses de lévriers en 2007</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 2007, les courses de lévriers continuent dans beaucoup de pays du globe. Les principaux pays accueillant les courses de lévriers sont :
 Australie
 Irlande
 Royaume-Uni
-États-Unis. Aux États-Unis, il y a des circuits pour les courses de lévriers dans 13 États[4]:
+États-Unis. Aux États-Unis, il y a des circuits pour les courses de lévriers dans 13 États:
 Alabama
 Arizona
 Arkansas
@@ -563,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Course_de_l%C3%A9vriers</t>
+          <t>Course_de_lévriers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,8 +597,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les conditions de vie
-En France, les courses de lévriers sont souvent pratiqués par des lévriers appartenant à des particuliers, dans un cadre officiel. Un décret datant du 20 octobre 1983 autorise des sociétés de courses de lévriers à organiser le pari mutuel dans leurs réunions de courses. Il peut y avoir des enjeux financiers mais il n'y a pas d'industrie des courses derrière ces rencontres. D'autre part la Société Centrale Canine organise par l'intermédiaire de clubs d'Utilisation des compétitions de lévriers avec un championnat de France annuel.
+          <t>Les conditions de vie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les courses de lévriers sont souvent pratiqués par des lévriers appartenant à des particuliers, dans un cadre officiel. Un décret datant du 20 octobre 1983 autorise des sociétés de courses de lévriers à organiser le pari mutuel dans leurs réunions de courses. Il peut y avoir des enjeux financiers mais il n'y a pas d'industrie des courses derrière ces rencontres. D'autre part la Société Centrale Canine organise par l'intermédiaire de clubs d'Utilisation des compétitions de lévriers avec un championnat de France annuel.
 Dans les pays anglo-saxons, un bon lévrier de course peut atteindre 35 000 euros mais sa carrière n'excède pas 18 mois. Ils sont alors « réformés » et proposés à l'adoption par des associations.
 </t>
         </is>
@@ -596,7 +615,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Course_de_l%C3%A9vriers</t>
+          <t>Course_de_lévriers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,15 +633,49 @@
           <t>L'équipement pour la course</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'équipement du lévrier de course se compose de deux choses essentielles:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'équipement du lévrier de course se compose de deux choses essentielles:
 Un dossard coloré numéroté de 1 à 6 : Ces numéros et ces couleurs sont reprises sur les boîtes de départ pour faciliter la reconnaissance du lévrier pendant la course.
-Une muselière (obligatoire) : la muselière n’est pas destinée à remédier à un tempérament agressif mais permet d'éviter tout incident à l'arrivée de la course où les concurrents se jettent sur le leurre (éjecté) et ont le réflexe de protéger leur proie.
-En Australie
-Sur le territoire britannique
-En Afrique du Sud
-En Afrique du Sud, les chiens sont gardés par leurs propriétaires. En raison de l'état amateur de la course, les propriétaires sont généralement aussi entraîneurs et éleveurs de leurs chiens; il est très rare que le chien soit placé dans un chenil avec un entraîneur.
+Une muselière (obligatoire) : la muselière n’est pas destinée à remédier à un tempérament agressif mais permet d'éviter tout incident à l'arrivée de la course où les concurrents se jettent sur le leurre (éjecté) et ont le réflexe de protéger leur proie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Course_de_lévriers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Course_de_l%C3%A9vriers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L'équipement pour la course</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Afrique du Sud, les chiens sont gardés par leurs propriétaires. En raison de l'état amateur de la course, les propriétaires sont généralement aussi entraîneurs et éleveurs de leurs chiens; il est très rare que le chien soit placé dans un chenil avec un entraîneur.
 </t>
         </is>
       </c>
